--- a/conf/preg/preg_rule.xlsx
+++ b/conf/preg/preg_rule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>IUD</t>
   </si>
@@ -101,6 +101,70 @@
   </si>
   <si>
     <t>Exclusion</t>
+  </si>
+  <si>
+    <t>#Contraception - LARC IUD Post placental    Delivery -    Anticipate vaginal delivery    </t>
+  </si>
+  <si>
+    <t>anticipate \w+ delivery</t>
+  </si>
+  <si>
+    <t>expect \w+ delivery</t>
+  </si>
+  <si>
+    <t>desire \w+ delivery</t>
+  </si>
+  <si>
+    <t>want \w+ delivery</t>
+  </si>
+  <si>
+    <t>anticipated \w+ delivery</t>
+  </si>
+  <si>
+    <t>expected \w+ delivery</t>
+  </si>
+  <si>
+    <t>desired \w+ delivery</t>
+  </si>
+  <si>
+    <t>wanted \w+ delivery</t>
+  </si>
+  <si>
+    <t>anticipates \w+ delivery</t>
+  </si>
+  <si>
+    <t>expects \w+ delivery</t>
+  </si>
+  <si>
+    <t>desires \w+ delivery</t>
+  </si>
+  <si>
+    <t>wants \w+ delivery</t>
+  </si>
+  <si>
+    <t>#SInce the IUD was removed she has had periods without significant pain.
+</t>
+  </si>
+  <si>
+    <t>IUD \w+ removed</t>
+  </si>
+  <si>
+    <t>IUD_REMOVE</t>
+  </si>
+  <si>
+    <t>IUD \w+ \w+ removed</t>
+  </si>
+  <si>
+    <t>reinsert</t>
+  </si>
+  <si>
+    <t>IUD_REINSERT</t>
+  </si>
+  <si>
+    <t>reinsertion</t>
+  </si>
+  <si>
+    <t>reinserted</t>
   </si>
 </sst>
 </file>
@@ -137,6 +201,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,13 +246,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -207,18 +276,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,6 +539,203 @@
         <v>26</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>2</v>
       </c>
     </row>
